--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Tabbar_Ruby.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/Tabbar_Ruby.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -109,6 +109,89 @@
 </t>
   </si>
   <si>
+    <t>Tabbar-Ruby-4.0</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual Compliance Ruby Specs
+};
+validate2
+{
+validate_PageTitle=NativeTabbar Ruby Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0576
+};
+validate4
+{
+validate_Screenshot=VT200_0576
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual Compliance Ruby Specs
+};
+validate2
+{
+validate_PageTitle=NativeTabbar Ruby Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0577
+};
+validate4
+{
+validate_Screenshot=VT200_0577
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual Compliance Ruby Specs
+};
+validate2
+{
+validate_PageTitle=NativeTabbar Ruby Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0579
+};
+validate4
+{
+validate_Screenshot=VT200_0579
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual Compliance Ruby Specs
+};
+validate2
+{
+validate_PageTitle=NativeTabbar Ruby Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0576
+};
+validate4
+{
+validate_isIconDisplayed=tabbar_xpath,true
+};
+validate5
+{
+validate_Text_Exists=VT200-0578
+};
+validate6
+{
+validate_isIconDisplayed=tabbar_xpath,false
+};</t>
+  </si>
+  <si>
     <t>wait(5);
 validate1;
 link_Click(tabbar_test_link);
@@ -118,7 +201,6 @@
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeScreenshot(VT200_0578_before);
 validate4;
 SwitchApp(NATIVE_APP);
 wait(2);
@@ -130,104 +212,13 @@
 validate5;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeScreenshot(VT200_0578);
 validate6;</t>
-  </si>
-  <si>
-    <t>Tabbar-Ruby-4.0</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual Compliance Ruby Specs
-};
-validate2
-{
-validate_PageTitle=NativeTabbar Ruby Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0576
-};
-validate4
-{
-validate_Screenshot=VT200_0576
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual Compliance Ruby Specs
-};
-validate2
-{
-validate_PageTitle=NativeTabbar Ruby Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0577
-};
-validate4
-{
-validate_Screenshot=VT200_0577
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual Compliance Ruby Specs
-};
-validate2
-{
-validate_PageTitle=NativeTabbar Ruby Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0576
-};
-validate4
-{
-validate_Screenshot=VT200_0578_before
-};
-validate5
-{
-validate_Text_Exists=VT200-0578
-};
-validate6
-{
-validate_Screenshot=VT200_0578
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual Compliance Ruby Specs
-};
-validate2
-{
-validate_PageTitle=NativeTabbar Ruby Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0579
-};
-validate4
-{
-validate_Screenshot=VT200_0579
-};</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -635,17 +626,17 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="36.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" thickBot="1">
@@ -689,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -704,14 +695,12 @@
         <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="180.75" thickBot="1">
@@ -735,12 +724,10 @@
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="270.75" thickBot="1">
@@ -761,15 +748,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="180.75" thickBot="1">
@@ -793,12 +778,10 @@
         <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
